--- a/EniTools_List_0530.xlsx
+++ b/EniTools_List_0530.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\downg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osstem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E8ED0-2920-4126-AD96-96338BF09085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29025" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="291">
   <si>
     <t>Category</t>
   </si>
@@ -559,414 +558,459 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>x 축 방향에 대한 볼륨 오프셋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y 축 방향에 대한 볼륨 오프셋</t>
+  </si>
+  <si>
+    <t>z 축 방향에 대한 볼륨 오프셋</t>
+  </si>
+  <si>
+    <t>이미징 후처리 실행 flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 중인 센서 종류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT 데이터 저장 드라이브 경로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONE3D 연동 체크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 시 X선에 노출되는 시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dose Area Product : 스캔 시 조사된 방사선의 양</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 할 영역의 기본 위치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collimator 자동 감지 모드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varex_5x5 촬영시 사용하는 후처리 스크립트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varex_15x9 촬영시 사용하는 후처리 스크립트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen1_15x9 촬영시 사용하는 후처리 스크립트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano 촬영 시 recon 에서 사용되는 프레임 개수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct 촬영 시 recon 에서 사용되는 프레임 개수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 데이터에서 잘라내거나 나눌 프레임의 수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 영역의 넓이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 넓이 증감 단계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>촬영 프리셋 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 겐트리 회전 횟수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 기본 모드 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 소요되는 시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 데이터를 자동으로 저장 ON/OFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 기본 관전압</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 기본 관전류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 시 X선에 노출되는 시간</t>
+  </si>
+  <si>
+    <t>촬영 프리셋 모드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph 촬영 섹션 로고 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph 촬영 타입 (Lateral, Coronal)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 반전 ON/OFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영 시 기본 관전압</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Artifact Reduction ON/OFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영 시 사용하는 센서 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 내부의 환자 차트 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 내부의 환자 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 내부의 환자 성별</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 내부의 환자 나이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 내부의 환자 생일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 영상 촬영 일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 영상 촬영 시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 영상에 접근하기 위한 고유 식별자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 영상 자료의 고유 식별자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 촬영 장비 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 통신에 사용되는 포트 번호 값</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 통신을 설정한 엔지니어 ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Calibration]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph_offset_start</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영시 Calibration offset 의 시작 지점</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영시 Calibration offset 의 종료 지점</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영시 Calibration offset 의 좌측 영역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영시 Calibration offset 의 우측 영역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영시 Calibration SW 빌드 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 시 노출 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT 촬영 시 노출 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영 시 노출 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파노라마 촬영 자료 백업 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT 촬영 자료 백업 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영 자료 백업 매개변수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph_default_mode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOV_default_position</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇은 조직막 촬영 시 FOV 기본 위치 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇은 조직막 촬영 시 세팔로 기본 모드 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Fov]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Gantry</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Bottom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x5_Mandible_RightMolar_Right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Bottom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Gantry</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상악(윗턱) 영역의 중절치에 대한 아랫쪽 영역에 초점을 맞춘 5x5 cm FOV </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 중절치에 대한 5x5 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Bottom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Bottom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하악(아랫턱) 영역의 중절치에 대한 아랫쪽 영역에 초점을 맞춘 5x5 cm FOV </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 중절치에 대한 5x5 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Right" 관점에서 오른쪽 영역에 초점을 맞춘 8x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 오른쪽 영역에 초점을 맞춘 8x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞추 5x5 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 영역에 초점을 맞춘 8x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 중앙 영역에 초점을 맞춘 8x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 영역에 초점을 맞춘 8x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Right" 관점에서 오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 부비동 영역에 초점을 맞춘 15x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 구강 전체 아치에 초점을 맞춘 15x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부비동 영역에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구강 전체 아치에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부비동 영역에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구강 전체 아치에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bottom" 관점에서 단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 15x9 cm FOV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen1_5x5 촬영시 사용하는 후처리 스크립트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>비어있는 프레임 값_sen1_2_r</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>x 축 방향에 대한 볼륨 오프셋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>y 축 방향에 대한 볼륨 오프셋</t>
-  </si>
-  <si>
-    <t>z 축 방향에 대한 볼륨 오프셋</t>
-  </si>
-  <si>
-    <t>이미징 후처리 실행 flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 중인 센서 종류</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캐너 이동 속도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT 데이터 저장 드라이브 경로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONE3D 연동 체크</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 시 X선에 노출되는 시간</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dose Area Product : 스캔 시 조사된 방사선의 양</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 할 영역의 기본 위치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collimator 자동 감지 모드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varex_5x5 촬영시 사용하는 후처리 스크립트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varex_15x9 촬영시 사용하는 후처리 스크립트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sen1_5x5 촬영시 사용하는 후처리 스크립트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sen1_15x9 촬영시 사용하는 후처리 스크립트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pano 촬영 시 recon 에서 사용되는 프레임 개수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ct 촬영 시 recon 에서 사용되는 프레임 개수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 데이터에서 잘라내거나 나눌 프레임의 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 영역의 넓이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 넓이 증감 단계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>촬영 프리셋 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 겐트리 회전 횟수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 기본 모드 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 소요되는 시간</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 데이터를 자동으로 저장 ON/OFF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 기본 관전압</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 기본 관전류</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 시 X선에 노출되는 시간</t>
-  </si>
-  <si>
-    <t>촬영 프리셋 모드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph 촬영 섹션 로고 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph 촬영 타입 (Lateral, Coronal)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 반전 ON/OFF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영 시 기본 관전압</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal Artifact Reduction ON/OFF</t>
-  </si>
-  <si>
-    <t>Metal Artifact Reduction ON/OFF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영 시 사용하는 센서 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내부의 환자 차트 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내부의 환자 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내부의 환자 성별</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내부의 환자 나이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내부의 환자 생일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 영상 촬영 일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 영상 촬영 시간</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 영상에 접근하기 위한 고유 식별자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 영상 자료의 고유 식별자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 촬영 장비 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼 통신에 사용되는 포트 번호 값</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼 통신을 설정한 엔지니어 ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Calibration]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ceph_offset_start</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영시 Calibration offset 의 시작 지점</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영시 Calibration offset 의 종료 지점</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영시 Calibration offset 의 좌측 영역</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영시 Calibration offset 의 우측 영역</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영시 Calibration SW 빌드 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 시 노출 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT 촬영 시 노출 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영 시 노출 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파노라마 촬영 자료 백업 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT 촬영 자료 백업 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>세팔로 촬영 자료 백업 매개변수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph_default_mode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOV_default_position</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇은 조직막 촬영 시 FOV 기본 위치 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇은 조직막 촬영 시 세팔로 기본 모드 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fov]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Gantry</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Bottom</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Right</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x5_Mandible_RightMolar_Right</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Right</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Bottom</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 대구치에 대한 5x5 cm FOV_Gantry</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상악(윗턱) 영역의 중절치에 대한 아랫쪽 영역에 초점을 맞춘 5x5 cm FOV </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 중절치에 대한 5x5 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Right</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Bottom</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Right</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV_Bottom</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">하악(아랫턱) 영역의 중절치에 대한 아랫쪽 영역에 초점을 맞춘 5x5 cm FOV </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 중절치에 대한 5x5 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Right" 관점에서 오른쪽 영역에 초점을 맞춘 8x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 오른쪽 영역에 초점을 맞춘 8x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상악(윗턱) 영역의 오른쪽 영역에 초점을 맞춘 5x5 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하악(아랫턱) 영역의 오른쪽 영역에 초점을 맞추 5x5 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 영역에 초점을 맞춘 8x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 중앙 영역에 초점을 맞춘 8x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙 영역에 초점을 맞춘 8x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Right" 관점에서 오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 턱관절(TemporoMandibular Joint, TMJ)에 초점을 맞춘 10x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 부비동 영역에 초점을 맞춘 15x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 구강 전체 아치에 초점을 맞춘 15x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부비동 영역에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>구강 전체 아치에 초점을 맞춘 12x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부비동 영역에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>구강 전체 아치에 초점을 맞춘 15x9 cm FOV 스캔의 겐트리 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bottom" 관점에서 단면(턱이 닫힐 때 이가 만나는 영역)에 초점을 맞춘 15x9 cm FOV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t xml:space="preserve">;Korean, English, Chinese, Japaness, Russian, German, French, </t>
+  </si>
+  <si>
+    <t>;Spanish, Portuguese, Italian, Vietnamese,Thai, Malay, Indonesian,</t>
+  </si>
+  <si>
+    <t>;Bengali, Kazakh, Ukrainian, Uzbek ,Mongolian ,Arabic, Hebrew, Turkish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;varian:1, sen1:2</t>
+  </si>
+  <si>
+    <t>스캐너 이동 속도 : V 수직 방향 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 0:Full Arch, 1:Occlusion, 2:Sinus</t>
+  </si>
+  <si>
+    <t>; 0:Light,       1:Middle,       2:Strong</t>
+  </si>
+  <si>
+    <t>; 3:Heavy Light, 4:Heavy Middle, 5:Heavy Strong</t>
+  </si>
+  <si>
+    <t>;no logo:0, logo:1</t>
+  </si>
+  <si>
+    <t>;image:1, frame:2</t>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팔로 촬영 시 기본 관전류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;no flip:0, flip:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;no backup=0, </t>
+  </si>
+  <si>
+    <t>;0:Full arch, 1:Occusion, 2: Sinus</t>
+  </si>
+  <si>
+    <t>;0:Full Lateral, 1:Lateral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1077,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1086,6 +1130,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색4" xfId="1" builtinId="42"/>
@@ -1400,22 +1445,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="3" width="90.58203125" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="7" max="7" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1454,8 +1500,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1472,8 +1521,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1490,8 +1542,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -1509,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -1527,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>21</v>
@@ -1545,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1563,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -1581,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>28</v>
@@ -1599,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>31</v>
@@ -1614,7 +1669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>35</v>
@@ -1629,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
@@ -1644,7 +1699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -1659,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>43</v>
@@ -1674,7 +1729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -1689,7 +1744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -1704,11 +1759,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1716,7 +1771,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D19">
         <v>600</v>
@@ -1725,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>51</v>
@@ -1740,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -1755,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
@@ -1770,7 +1825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>58</v>
@@ -1785,7 +1840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>62</v>
@@ -1794,7 +1849,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>63</v>
@@ -1803,7 +1858,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>64</v>
@@ -1812,7 +1867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>65</v>
@@ -1821,7 +1876,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>66</v>
@@ -1830,7 +1885,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>67</v>
@@ -1839,7 +1894,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>68</v>
@@ -1848,7 +1903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>69</v>
@@ -1857,7 +1912,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>70</v>
@@ -1866,25 +1921,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>73</v>
@@ -1893,7 +1948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>74</v>
@@ -1902,7 +1957,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>75</v>
@@ -1911,294 +1966,306 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+      <c r="G53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C55" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+      <c r="G60" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>103</v>
       </c>
@@ -2206,77 +2273,86 @@
         <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+      <c r="G71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+      <c r="G72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
+      <c r="B75" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+      <c r="G75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -2284,102 +2360,102 @@
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>118</v>
       </c>
@@ -2387,74 +2463,74 @@
         <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
@@ -2462,32 +2538,32 @@
         <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>129</v>
       </c>
@@ -2495,352 +2571,361 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="G107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+      <c r="G109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+      <c r="G110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C130" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C139" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C141" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C143" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
